--- a/Good Recordings/8.7.Labels.xlsx
+++ b/Good Recordings/8.7.Labels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuval\Desktop\הנדסה ביו רפואית\שנה ד\סמסטר א\חישה רציפה\פרויקט 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Continuous_Monitoring_project1\Good Recordings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBDFC18-5D81-4E28-84D4-E37CA8E15AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04033B8-7CC7-473A-86DB-DF91C27B161A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{837856D6-76C3-40DF-906F-8D35F84A363B}"/>
   </bookViews>
@@ -427,15 +427,15 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>4.04</v>
       </c>
@@ -457,7 +457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>430</v>
       </c>
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>860</v>
       </c>
@@ -479,7 +479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1291</v>
       </c>
@@ -490,12 +490,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1722</v>
       </c>
       <c r="B6" s="3">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>6</v>
